--- a/omsui/Downloads/4ROY_failed_catalog-original.xlsx
+++ b/omsui/Downloads/4ROY_failed_catalog-original.xlsx
@@ -4861,7 +4861,7 @@
     <t>500</t>
   </si>
   <si>
-    <t>http://shopimages1.vstores.io/000_mohan/1600273040_1.jpg</t>
+    <t>http://shopimages1.vstores.io/000_mohan/1600320862_1.jpg</t>
   </si>
   <si>
     <t/>
